--- a/CSV/사망자수__조사망률__기대수명_20220508202008.xlsx
+++ b/CSV/사망자수__조사망률__기대수명_20220508202008.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PKDPMS0328\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GITHUB\Death Web (학교과제)\CSV\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33DB7F96-925C-49C2-944F-BB8410D1AB87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A232DFE8-5F35-49F4-8FA9-D0A2496FD4C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="데이터" sheetId="1" r:id="rId1"/>
@@ -91,7 +91,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="184" formatCode="0_);[Red]\(0\)"/>
+    <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -184,36 +184,33 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="184" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="184" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="184" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="184" fontId="0" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="184" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="184" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="184" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -533,436 +530,436 @@
   <dimension ref="A1:B53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="A2" sqref="A2:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.125" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.125" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.125" style="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="3" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="6">
+      <c r="A2" s="4">
         <v>1970</v>
       </c>
-      <c r="B2" s="7">
+      <c r="B2" s="5">
         <v>258589</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="8">
+      <c r="A3" s="4">
         <v>1971</v>
       </c>
-      <c r="B3" s="7">
+      <c r="B3" s="5">
         <v>237528</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="8">
+      <c r="A4" s="4">
         <v>1972</v>
       </c>
-      <c r="B4" s="7">
+      <c r="B4" s="5">
         <v>210071</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="8">
+      <c r="A5" s="4">
         <v>1973</v>
       </c>
-      <c r="B5" s="7">
+      <c r="B5" s="5">
         <v>267460</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="8">
+      <c r="A6" s="4">
         <v>1974</v>
       </c>
-      <c r="B6" s="7">
+      <c r="B6" s="5">
         <v>248807</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="8">
+      <c r="A7" s="4">
         <v>1975</v>
       </c>
-      <c r="B7" s="7">
+      <c r="B7" s="5">
         <v>270657</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="8">
+      <c r="A8" s="4">
         <v>1976</v>
       </c>
-      <c r="B8" s="7">
+      <c r="B8" s="5">
         <v>266857</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="8">
+      <c r="A9" s="4">
         <v>1977</v>
       </c>
-      <c r="B9" s="7">
+      <c r="B9" s="5">
         <v>249254</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="8">
+      <c r="A10" s="4">
         <v>1978</v>
       </c>
-      <c r="B10" s="7">
+      <c r="B10" s="5">
         <v>252298</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="8">
+      <c r="A11" s="4">
         <v>1979</v>
       </c>
-      <c r="B11" s="7">
+      <c r="B11" s="5">
         <v>239986</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="8">
+      <c r="A12" s="4">
         <v>1980</v>
       </c>
-      <c r="B12" s="7">
+      <c r="B12" s="5">
         <v>277284</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="8">
+      <c r="A13" s="4">
         <v>1981</v>
       </c>
-      <c r="B13" s="7">
+      <c r="B13" s="5">
         <v>237481</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="8">
+      <c r="A14" s="4">
         <v>1982</v>
       </c>
-      <c r="B14" s="7">
+      <c r="B14" s="5">
         <v>245767</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="8">
+      <c r="A15" s="4">
         <v>1983</v>
       </c>
-      <c r="B15" s="7">
+      <c r="B15" s="5">
         <v>254563</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="8">
+      <c r="A16" s="4">
         <v>1984</v>
       </c>
-      <c r="B16" s="7">
+      <c r="B16" s="5">
         <v>236445</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="8">
+      <c r="A17" s="4">
         <v>1985</v>
       </c>
-      <c r="B17" s="7">
+      <c r="B17" s="5">
         <v>240418</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="8">
+      <c r="A18" s="4">
         <v>1986</v>
       </c>
-      <c r="B18" s="7">
+      <c r="B18" s="5">
         <v>239256</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="8">
+      <c r="A19" s="4">
         <v>1987</v>
       </c>
-      <c r="B19" s="7">
+      <c r="B19" s="5">
         <v>243504</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="8">
+      <c r="A20" s="4">
         <v>1988</v>
       </c>
-      <c r="B20" s="7">
+      <c r="B20" s="5">
         <v>235779</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="8">
+      <c r="A21" s="4">
         <v>1989</v>
       </c>
-      <c r="B21" s="7">
+      <c r="B21" s="5">
         <v>236818</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="8">
+      <c r="A22" s="4">
         <v>1990</v>
       </c>
-      <c r="B22" s="7">
+      <c r="B22" s="5">
         <v>241616</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="8">
+      <c r="A23" s="4">
         <v>1991</v>
       </c>
-      <c r="B23" s="7">
+      <c r="B23" s="5">
         <v>242270</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="8">
+      <c r="A24" s="4">
         <v>1992</v>
       </c>
-      <c r="B24" s="7">
+      <c r="B24" s="5">
         <v>236162</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="8">
+      <c r="A25" s="4">
         <v>1993</v>
       </c>
-      <c r="B25" s="7">
+      <c r="B25" s="5">
         <v>234257</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="8">
+      <c r="A26" s="4">
         <v>1994</v>
       </c>
-      <c r="B26" s="7">
+      <c r="B26" s="5">
         <v>242439</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="8">
+      <c r="A27" s="4">
         <v>1995</v>
       </c>
-      <c r="B27" s="7">
+      <c r="B27" s="5">
         <v>242838</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="8">
+      <c r="A28" s="4">
         <v>1996</v>
       </c>
-      <c r="B28" s="7">
+      <c r="B28" s="5">
         <v>241149</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="8">
+      <c r="A29" s="4">
         <v>1997</v>
       </c>
-      <c r="B29" s="7">
+      <c r="B29" s="5">
         <v>244693</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="8">
+      <c r="A30" s="4">
         <v>1998</v>
       </c>
-      <c r="B30" s="7">
+      <c r="B30" s="5">
         <v>245825</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="8">
+      <c r="A31" s="4">
         <v>1999</v>
       </c>
-      <c r="B31" s="7">
+      <c r="B31" s="5">
         <v>247734</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="8">
+      <c r="A32" s="4">
         <v>2000</v>
       </c>
-      <c r="B32" s="7">
+      <c r="B32" s="5">
         <v>248740</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="8">
+      <c r="A33" s="4">
         <v>2001</v>
       </c>
-      <c r="B33" s="7">
+      <c r="B33" s="5">
         <v>243813</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="8">
+      <c r="A34" s="4">
         <v>2002</v>
       </c>
-      <c r="B34" s="7">
+      <c r="B34" s="5">
         <v>247524</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="8">
+      <c r="A35" s="4">
         <v>2003</v>
       </c>
-      <c r="B35" s="7">
+      <c r="B35" s="5">
         <v>246463</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="8">
+      <c r="A36" s="4">
         <v>2004</v>
       </c>
-      <c r="B36" s="7">
+      <c r="B36" s="5">
         <v>246220</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="8">
+      <c r="A37" s="4">
         <v>2005</v>
       </c>
-      <c r="B37" s="7">
+      <c r="B37" s="5">
         <v>245874</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="8">
+      <c r="A38" s="4">
         <v>2006</v>
       </c>
-      <c r="B38" s="7">
+      <c r="B38" s="5">
         <v>244162</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="8">
+      <c r="A39" s="4">
         <v>2007</v>
       </c>
-      <c r="B39" s="7">
+      <c r="B39" s="5">
         <v>246482</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="8">
+      <c r="A40" s="4">
         <v>2008</v>
       </c>
-      <c r="B40" s="7">
+      <c r="B40" s="5">
         <v>246113</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="8">
+      <c r="A41" s="4">
         <v>2009</v>
       </c>
-      <c r="B41" s="7">
+      <c r="B41" s="5">
         <v>246942</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="8">
+      <c r="A42" s="4">
         <v>2010</v>
       </c>
-      <c r="B42" s="7">
+      <c r="B42" s="5">
         <v>255405</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="8">
+      <c r="A43" s="4">
         <v>2011</v>
       </c>
-      <c r="B43" s="7">
+      <c r="B43" s="5">
         <v>257396</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="8">
+      <c r="A44" s="4">
         <v>2012</v>
       </c>
-      <c r="B44" s="7">
+      <c r="B44" s="5">
         <v>267221</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="8">
+      <c r="A45" s="4">
         <v>2013</v>
       </c>
-      <c r="B45" s="7">
+      <c r="B45" s="5">
         <v>266257</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="8">
+      <c r="A46" s="4">
         <v>2014</v>
       </c>
-      <c r="B46" s="7">
+      <c r="B46" s="5">
         <v>267692</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="8">
+      <c r="A47" s="4">
         <v>2015</v>
       </c>
-      <c r="B47" s="7">
+      <c r="B47" s="5">
         <v>275895</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="8">
+      <c r="A48" s="4">
         <v>2016</v>
       </c>
-      <c r="B48" s="7">
+      <c r="B48" s="5">
         <v>280827</v>
       </c>
     </row>
     <row r="49" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="8">
+      <c r="A49" s="4">
         <v>2017</v>
       </c>
-      <c r="B49" s="7">
+      <c r="B49" s="5">
         <v>285534</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="8">
+      <c r="A50" s="4">
         <v>2018</v>
       </c>
-      <c r="B50" s="7">
+      <c r="B50" s="5">
         <v>298820</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="8">
+      <c r="A51" s="4">
         <v>2019</v>
       </c>
-      <c r="B51" s="7">
+      <c r="B51" s="5">
         <v>295110</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="8">
+      <c r="A52" s="4">
         <v>2020</v>
       </c>
-      <c r="B52" s="7">
+      <c r="B52" s="5">
         <v>304948</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="9">
+      <c r="A53" s="6">
         <v>2021</v>
       </c>
-      <c r="B53" s="7">
+      <c r="B53" s="5">
         <v>317800</v>
       </c>
     </row>
